--- a/sequences/17_retrieval_2.xlsx
+++ b/sequences/17_retrieval_2.xlsx
@@ -55,582 +55,582 @@
     <t>type4</t>
   </si>
   <si>
-    <t>pflegen</t>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>orten</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>hoffen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>hupen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>trotzen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>pressen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>sitzen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>öffnen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>schneiden</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>morden</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>kaufen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>starren</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>hören</t>
   </si>
   <si>
     <t>füllen</t>
   </si>
   <si>
-    <t>währen</t>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
   </si>
   <si>
     <t>sinken</t>
   </si>
   <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>garen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>kennen</t>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>drücken</t>
   </si>
   <si>
     <t>gründen</t>
   </si>
   <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>stoßen</t>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>bluten</t>
   </si>
   <si>
     <t>nähen</t>
   </si>
   <si>
-    <t>zeugen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>zeichnen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>baden</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>reizen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>spuren</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>widmen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>klingen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>albern</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>tropfen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>mühen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
     <t>face/face022.jpg</t>
   </si>
   <si>
@@ -1123,13 +1123,13 @@
     <t>other/old/uncued</t>
   </si>
   <si>
+    <t>same/old/uncued</t>
+  </si>
+  <si>
+    <t>other/new/uncued</t>
+  </si>
+  <si>
     <t>same/old/cued</t>
-  </si>
-  <si>
-    <t>other/new/uncued</t>
-  </si>
-  <si>
-    <t>same/old/uncued</t>
   </si>
   <si>
     <t>correct/old/cued</t>
@@ -1869,16 +1869,16 @@
         <v>370</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="L2" t="s">
         <v>368</v>
       </c>
       <c r="M2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="N2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="H3" t="s">
         <v>368</v>
@@ -1916,7 +1916,7 @@
         <v>232</v>
       </c>
       <c r="L3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M3" t="s">
         <v>206</v>
@@ -1960,7 +1960,7 @@
         <v>307</v>
       </c>
       <c r="L4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M4" t="s">
         <v>207</v>
@@ -2098,7 +2098,7 @@
         <v>323</v>
       </c>
       <c r="N7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="H8" t="s">
         <v>369</v>
@@ -2130,10 +2130,10 @@
         <v>210</v>
       </c>
       <c r="J8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K8" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L8" t="s">
         <v>368</v>
@@ -2230,7 +2230,7 @@
         <v>329</v>
       </c>
       <c r="N10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2259,10 +2259,10 @@
         <v>370</v>
       </c>
       <c r="I11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K11" t="s">
         <v>212</v>
@@ -2271,7 +2271,7 @@
         <v>367</v>
       </c>
       <c r="M11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N11" t="s">
         <v>368</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H12" t="s">
         <v>368</v>
@@ -2312,7 +2312,7 @@
         <v>232</v>
       </c>
       <c r="L12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M12" t="s">
         <v>437</v>
@@ -2338,19 +2338,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I13" t="s">
         <v>214</v>
       </c>
       <c r="J13" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K13" t="s">
         <v>327</v>
@@ -2385,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="H14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I14" t="s">
         <v>215</v>
@@ -2479,16 +2479,16 @@
         <v>370</v>
       </c>
       <c r="I16" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J16" t="s">
         <v>368</v>
       </c>
       <c r="K16" t="s">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="L16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M16" t="s">
         <v>216</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="H17" t="s">
         <v>368</v>
@@ -2532,7 +2532,7 @@
         <v>283</v>
       </c>
       <c r="L17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M17" t="s">
         <v>217</v>
@@ -2567,10 +2567,10 @@
         <v>368</v>
       </c>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="J18" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K18" t="s">
         <v>218</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
         <v>341</v>
@@ -2611,7 +2611,7 @@
         <v>370</v>
       </c>
       <c r="I19" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="J19" t="s">
         <v>369</v>
@@ -2620,10 +2620,10 @@
         <v>219</v>
       </c>
       <c r="L19" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M19" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="N19" t="s">
         <v>368</v>
@@ -2778,16 +2778,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I23" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="J23" t="s">
         <v>369</v>
@@ -2799,10 +2799,10 @@
         <v>370</v>
       </c>
       <c r="M23" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2846,7 +2846,7 @@
         <v>295</v>
       </c>
       <c r="N24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H25" t="s">
         <v>368</v>
@@ -2884,7 +2884,7 @@
         <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M25" t="s">
         <v>441</v>
@@ -2922,7 +2922,7 @@
         <v>262</v>
       </c>
       <c r="J26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K26" t="s">
         <v>407</v>
@@ -2931,7 +2931,7 @@
         <v>370</v>
       </c>
       <c r="M26" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s">
         <v>368</v>
@@ -2969,7 +2969,7 @@
         <v>372</v>
       </c>
       <c r="K27" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
         <v>368</v>
@@ -3057,10 +3057,10 @@
         <v>370</v>
       </c>
       <c r="K29" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M29" t="s">
         <v>225</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
         <v>342</v>
@@ -3098,16 +3098,16 @@
         <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M30" t="s">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="N30" t="s">
         <v>368</v>
@@ -3139,10 +3139,10 @@
         <v>367</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="J31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K31" t="s">
         <v>408</v>
@@ -3151,7 +3151,7 @@
         <v>370</v>
       </c>
       <c r="M31" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s">
         <v>368</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
         <v>343</v>
@@ -3318,13 +3318,13 @@
         <v>228</v>
       </c>
       <c r="J35" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K35" t="s">
         <v>316</v>
       </c>
       <c r="L35" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M35" t="s">
         <v>249</v>
@@ -3359,10 +3359,10 @@
         <v>370</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="J36" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s">
         <v>229</v>
@@ -3371,7 +3371,7 @@
         <v>367</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="N36" t="s">
         <v>368</v>
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
         <v>368</v>
@@ -3418,7 +3418,7 @@
         <v>213</v>
       </c>
       <c r="N37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3450,7 +3450,7 @@
         <v>218</v>
       </c>
       <c r="J38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K38" t="s">
         <v>231</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="H40" t="s">
         <v>368</v>
@@ -3544,7 +3544,7 @@
         <v>221</v>
       </c>
       <c r="L40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s">
         <v>443</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
         <v>249</v>
@@ -3670,10 +3670,10 @@
         <v>233</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L43" t="s">
         <v>371</v>
@@ -3711,7 +3711,7 @@
         <v>367</v>
       </c>
       <c r="I44" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="J44" t="s">
         <v>368</v>
@@ -3726,7 +3726,7 @@
         <v>213</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3758,7 +3758,7 @@
         <v>332</v>
       </c>
       <c r="J45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K45" t="s">
         <v>410</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H46" t="s">
         <v>368</v>
@@ -3808,7 +3808,7 @@
         <v>229</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s">
         <v>236</v>
@@ -3858,7 +3858,7 @@
         <v>308</v>
       </c>
       <c r="N47" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3925,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I49" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="J49" t="s">
         <v>368</v>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="H50" t="s">
         <v>368</v>
@@ -3987,10 +3987,10 @@
         <v>367</v>
       </c>
       <c r="M50" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="N50" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4057,13 +4057,13 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="H52" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I52" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="J52" t="s">
         <v>368</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H53" t="s">
         <v>368</v>
@@ -4116,7 +4116,7 @@
         <v>239</v>
       </c>
       <c r="L53" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s">
         <v>447</v>
@@ -4148,7 +4148,7 @@
         <v>216</v>
       </c>
       <c r="H54" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I54" t="s">
         <v>381</v>
@@ -4163,7 +4163,7 @@
         <v>367</v>
       </c>
       <c r="M54" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="N54" t="s">
         <v>368</v>
@@ -4189,10 +4189,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H55" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I55" t="s">
         <v>232</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="H57" t="s">
         <v>368</v>
@@ -4295,10 +4295,10 @@
         <v>367</v>
       </c>
       <c r="M57" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="N57" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="s">
         <v>347</v>
@@ -4327,7 +4327,7 @@
         <v>370</v>
       </c>
       <c r="I58" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="J58" t="s">
         <v>371</v>
@@ -4336,13 +4336,13 @@
         <v>297</v>
       </c>
       <c r="L58" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s">
         <v>245</v>
       </c>
       <c r="N58" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4406,25 +4406,25 @@
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
         <v>246</v>
       </c>
       <c r="H60" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I60" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="J60" t="s">
         <v>368</v>
       </c>
       <c r="K60" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L60" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M60" t="s">
         <v>449</v>
@@ -4450,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
         <v>247</v>
       </c>
       <c r="H61" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I61" t="s">
         <v>383</v>
@@ -4465,13 +4465,13 @@
         <v>370</v>
       </c>
       <c r="K61" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L61" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="N61" t="s">
         <v>368</v>
@@ -4541,16 +4541,16 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="H63" t="s">
         <v>373</v>
       </c>
       <c r="I63" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="J63" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K63" t="s">
         <v>248</v>
@@ -4635,7 +4635,7 @@
         <v>367</v>
       </c>
       <c r="I65" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J65" t="s">
         <v>368</v>
@@ -4650,7 +4650,7 @@
         <v>270</v>
       </c>
       <c r="N65" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4682,7 +4682,7 @@
         <v>321</v>
       </c>
       <c r="J66" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K66" t="s">
         <v>250</v>
@@ -4691,7 +4691,7 @@
         <v>367</v>
       </c>
       <c r="M66" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N66" t="s">
         <v>368</v>
@@ -4714,19 +4714,19 @@
         <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="H67" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I67" t="s">
         <v>297</v>
       </c>
       <c r="J67" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K67" t="s">
         <v>413</v>
@@ -4738,7 +4738,7 @@
         <v>251</v>
       </c>
       <c r="N67" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="H69" t="s">
         <v>368</v>
@@ -4820,7 +4820,7 @@
         <v>295</v>
       </c>
       <c r="L69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M69" t="s">
         <v>451</v>
@@ -4858,10 +4858,10 @@
         <v>322</v>
       </c>
       <c r="J70" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K70" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="L70" t="s">
         <v>368</v>
@@ -4893,10 +4893,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="H71" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I71" t="s">
         <v>254</v>
@@ -4905,7 +4905,7 @@
         <v>367</v>
       </c>
       <c r="K71" t="s">
-        <v>220</v>
+        <v>291</v>
       </c>
       <c r="L71" t="s">
         <v>368</v>
@@ -4946,7 +4946,7 @@
         <v>330</v>
       </c>
       <c r="J72" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K72" t="s">
         <v>255</v>
@@ -4955,7 +4955,7 @@
         <v>367</v>
       </c>
       <c r="M72" t="s">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="N72" t="s">
         <v>368</v>
@@ -5031,7 +5031,7 @@
         <v>370</v>
       </c>
       <c r="I74" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="J74" t="s">
         <v>368</v>
@@ -5043,10 +5043,10 @@
         <v>367</v>
       </c>
       <c r="M74" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="N74" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5119,13 +5119,13 @@
         <v>370</v>
       </c>
       <c r="I76" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="J76" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K76" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s">
         <v>368</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="H79" t="s">
         <v>368</v>
@@ -5263,10 +5263,10 @@
         <v>370</v>
       </c>
       <c r="M79" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="N79" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
         <v>353</v>
@@ -5383,19 +5383,19 @@
         <v>370</v>
       </c>
       <c r="I82" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="J82" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K82" t="s">
         <v>259</v>
       </c>
       <c r="L82" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M82" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N82" t="s">
         <v>371</v>
@@ -5477,7 +5477,7 @@
         <v>373</v>
       </c>
       <c r="K84" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L84" t="s">
         <v>369</v>
@@ -5506,19 +5506,19 @@
         <v>0</v>
       </c>
       <c r="F85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="H85" t="s">
         <v>371</v>
       </c>
       <c r="I85" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="J85" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K85" t="s">
         <v>415</v>
@@ -5530,7 +5530,7 @@
         <v>261</v>
       </c>
       <c r="N85" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5559,16 +5559,16 @@
         <v>367</v>
       </c>
       <c r="I86" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="J86" t="s">
         <v>368</v>
       </c>
       <c r="K86" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="L86" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M86" t="s">
         <v>453</v>
@@ -5662,7 +5662,7 @@
         <v>257</v>
       </c>
       <c r="N88" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5735,10 +5735,10 @@
         <v>367</v>
       </c>
       <c r="I90" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="J90" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K90" t="s">
         <v>417</v>
@@ -5747,7 +5747,7 @@
         <v>370</v>
       </c>
       <c r="M90" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N90" t="s">
         <v>368</v>
@@ -5770,25 +5770,25 @@
         <v>0</v>
       </c>
       <c r="F91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
         <v>265</v>
       </c>
       <c r="H91" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I91" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="J91" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K91" t="s">
         <v>261</v>
       </c>
       <c r="L91" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M91" t="s">
         <v>454</v>
@@ -5823,13 +5823,13 @@
         <v>372</v>
       </c>
       <c r="I92" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="J92" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K92" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="L92" t="s">
         <v>373</v>
@@ -5905,16 +5905,16 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="H94" t="s">
         <v>368</v>
       </c>
       <c r="I94" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="J94" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K94" t="s">
         <v>418</v>
@@ -5949,10 +5949,10 @@
         <v>1</v>
       </c>
       <c r="G95" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H95" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I95" t="s">
         <v>241</v>
@@ -5993,16 +5993,16 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="H96" t="s">
         <v>368</v>
       </c>
       <c r="I96" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="J96" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K96" t="s">
         <v>269</v>
@@ -6058,7 +6058,7 @@
         <v>241</v>
       </c>
       <c r="N97" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6093,13 +6093,13 @@
         <v>367</v>
       </c>
       <c r="K98" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="L98" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M98" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="N98" t="s">
         <v>368</v>
@@ -6169,13 +6169,13 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="H100" t="s">
         <v>369</v>
       </c>
       <c r="I100" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="J100" t="s">
         <v>368</v>
@@ -6216,7 +6216,7 @@
         <v>292</v>
       </c>
       <c r="H101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I101" t="s">
         <v>385</v>
@@ -6225,7 +6225,7 @@
         <v>370</v>
       </c>
       <c r="K101" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L101" t="s">
         <v>368</v>
@@ -6313,13 +6313,13 @@
         <v>372</v>
       </c>
       <c r="K103" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="L103" t="s">
         <v>369</v>
       </c>
       <c r="M103" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="N103" t="s">
         <v>368</v>
@@ -6351,7 +6351,7 @@
         <v>373</v>
       </c>
       <c r="I104" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="J104" t="s">
         <v>371</v>
@@ -6430,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
         <v>357</v>
@@ -6439,19 +6439,19 @@
         <v>370</v>
       </c>
       <c r="I106" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="J106" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K106" t="s">
         <v>276</v>
       </c>
       <c r="L106" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M106" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N106" t="s">
         <v>369</v>
@@ -6518,13 +6518,13 @@
         <v>0</v>
       </c>
       <c r="F108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="s">
         <v>277</v>
       </c>
       <c r="H108" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I108" t="s">
         <v>386</v>
@@ -6533,13 +6533,13 @@
         <v>370</v>
       </c>
       <c r="K108" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L108" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M108" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="N108" t="s">
         <v>368</v>
@@ -6565,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="G109" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="H109" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I109" t="s">
         <v>242</v>
@@ -6618,7 +6618,7 @@
         <v>232</v>
       </c>
       <c r="J110" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K110" t="s">
         <v>279</v>
@@ -6627,7 +6627,7 @@
         <v>367</v>
       </c>
       <c r="M110" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="N110" t="s">
         <v>368</v>
@@ -6653,10 +6653,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H111" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I111" t="s">
         <v>387</v>
@@ -6671,7 +6671,7 @@
         <v>367</v>
       </c>
       <c r="M111" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="N111" t="s">
         <v>368</v>
@@ -6694,19 +6694,19 @@
         <v>0</v>
       </c>
       <c r="F112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="H112" t="s">
         <v>368</v>
       </c>
       <c r="I112" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="J112" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K112" t="s">
         <v>420</v>
@@ -6718,7 +6718,7 @@
         <v>281</v>
       </c>
       <c r="N112" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -6756,7 +6756,7 @@
         <v>292</v>
       </c>
       <c r="L113" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M113" t="s">
         <v>460</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="H115" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I115" t="s">
         <v>388</v>
@@ -6847,7 +6847,7 @@
         <v>367</v>
       </c>
       <c r="M115" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="N115" t="s">
         <v>368</v>
@@ -6870,22 +6870,22 @@
         <v>0</v>
       </c>
       <c r="F116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="s">
         <v>284</v>
       </c>
       <c r="H116" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I116" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="J116" t="s">
         <v>368</v>
       </c>
       <c r="K116" t="s">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="L116" t="s">
         <v>369</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="H118" t="s">
         <v>368</v>
@@ -6979,10 +6979,10 @@
         <v>367</v>
       </c>
       <c r="M118" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="N118" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -7052,10 +7052,10 @@
         <v>250</v>
       </c>
       <c r="H120" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I120" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="J120" t="s">
         <v>368</v>
@@ -7114,7 +7114,7 @@
         <v>214</v>
       </c>
       <c r="N121" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7140,7 +7140,7 @@
         <v>262</v>
       </c>
       <c r="H122" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I122" t="s">
         <v>391</v>
@@ -7149,7 +7149,7 @@
         <v>370</v>
       </c>
       <c r="K122" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="L122" t="s">
         <v>368</v>
@@ -7178,10 +7178,10 @@
         <v>0</v>
       </c>
       <c r="F123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="H123" t="s">
         <v>368</v>
@@ -7190,7 +7190,7 @@
         <v>289</v>
       </c>
       <c r="J123" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K123" t="s">
         <v>421</v>
@@ -7199,10 +7199,10 @@
         <v>370</v>
       </c>
       <c r="M123" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="N123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -7363,10 +7363,10 @@
         <v>367</v>
       </c>
       <c r="I127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J127" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K127" t="s">
         <v>422</v>
@@ -7442,13 +7442,13 @@
         <v>0</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="s">
         <v>291</v>
       </c>
       <c r="H129" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I129" t="s">
         <v>392</v>
@@ -7457,16 +7457,16 @@
         <v>370</v>
       </c>
       <c r="K129" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="L129" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M129" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="N129" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7489,10 +7489,10 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H130" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I130" t="s">
         <v>292</v>
@@ -7501,7 +7501,7 @@
         <v>367</v>
       </c>
       <c r="K130" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="L130" t="s">
         <v>368</v>
@@ -7536,7 +7536,7 @@
         <v>222</v>
       </c>
       <c r="H131" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I131" t="s">
         <v>393</v>
@@ -7624,10 +7624,10 @@
         <v>309</v>
       </c>
       <c r="H133" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I133" t="s">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="J133" t="s">
         <v>368</v>
@@ -7665,10 +7665,10 @@
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="H134" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I134" t="s">
         <v>295</v>
@@ -7683,7 +7683,7 @@
         <v>370</v>
       </c>
       <c r="M134" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="N134" t="s">
         <v>368</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="s">
         <v>359</v>
@@ -7759,7 +7759,7 @@
         <v>370</v>
       </c>
       <c r="I136" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J136" t="s">
         <v>369</v>
@@ -7768,7 +7768,7 @@
         <v>296</v>
       </c>
       <c r="L136" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M136" t="s">
         <v>295</v>
@@ -7891,7 +7891,7 @@
         <v>367</v>
       </c>
       <c r="I139" t="s">
-        <v>231</v>
+        <v>329</v>
       </c>
       <c r="J139" t="s">
         <v>368</v>
@@ -7906,7 +7906,7 @@
         <v>305</v>
       </c>
       <c r="N139" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140" t="s">
         <v>360</v>
@@ -7935,19 +7935,19 @@
         <v>370</v>
       </c>
       <c r="I140" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="J140" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K140" t="s">
         <v>298</v>
       </c>
       <c r="L140" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M140" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="N140" t="s">
         <v>368</v>
@@ -7982,7 +7982,7 @@
         <v>253</v>
       </c>
       <c r="J141" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K141" t="s">
         <v>324</v>
@@ -8023,16 +8023,16 @@
         <v>370</v>
       </c>
       <c r="I142" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="J142" t="s">
         <v>368</v>
       </c>
       <c r="K142" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L142" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M142" t="s">
         <v>300</v>
@@ -8117,16 +8117,16 @@
         <v>370</v>
       </c>
       <c r="K144" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="L144" t="s">
         <v>368</v>
       </c>
       <c r="M144" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="N144" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="H145" t="s">
         <v>368</v>
@@ -8167,10 +8167,10 @@
         <v>367</v>
       </c>
       <c r="M145" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="N145" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -8193,10 +8193,10 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="H146" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I146" t="s">
         <v>396</v>
@@ -8205,7 +8205,7 @@
         <v>370</v>
       </c>
       <c r="K146" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="L146" t="s">
         <v>368</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="H147" t="s">
         <v>368</v>
@@ -8249,10 +8249,10 @@
         <v>367</v>
       </c>
       <c r="K147" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="L147" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M147" t="s">
         <v>466</v>
@@ -8293,16 +8293,16 @@
         <v>367</v>
       </c>
       <c r="K148" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="L148" t="s">
         <v>368</v>
       </c>
       <c r="M148" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="N148" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -8325,10 +8325,10 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="H149" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I149" t="s">
         <v>306</v>
@@ -8343,7 +8343,7 @@
         <v>370</v>
       </c>
       <c r="M149" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="N149" t="s">
         <v>368</v>
@@ -8416,7 +8416,7 @@
         <v>257</v>
       </c>
       <c r="H151" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I151" t="s">
         <v>307</v>
@@ -8431,7 +8431,7 @@
         <v>370</v>
       </c>
       <c r="M151" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="N151" t="s">
         <v>368</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
         <v>363</v>
@@ -8554,19 +8554,19 @@
         <v>308</v>
       </c>
       <c r="J154" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K154" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="L154" t="s">
         <v>369</v>
       </c>
       <c r="M154" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="N154" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8648,7 +8648,7 @@
         <v>327</v>
       </c>
       <c r="L156" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M156" t="s">
         <v>467</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157" t="s">
         <v>364</v>
@@ -8686,16 +8686,16 @@
         <v>310</v>
       </c>
       <c r="J157" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K157" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L157" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M157" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="N157" t="s">
         <v>371</v>
@@ -8821,16 +8821,16 @@
         <v>370</v>
       </c>
       <c r="K160" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="L160" t="s">
         <v>368</v>
       </c>
       <c r="M160" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="N160" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8862,7 +8862,7 @@
         <v>243</v>
       </c>
       <c r="J161" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K161" t="s">
         <v>312</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="G162" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="H162" t="s">
         <v>368</v>
@@ -8906,7 +8906,7 @@
         <v>244</v>
       </c>
       <c r="J162" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K162" t="s">
         <v>313</v>
@@ -8950,7 +8950,7 @@
         <v>287</v>
       </c>
       <c r="J163" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K163" t="s">
         <v>427</v>
@@ -9026,13 +9026,13 @@
         <v>0</v>
       </c>
       <c r="F165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="H165" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="I165" t="s">
         <v>398</v>
@@ -9041,7 +9041,7 @@
         <v>370</v>
       </c>
       <c r="K165" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="L165" t="s">
         <v>371</v>
@@ -9050,7 +9050,7 @@
         <v>315</v>
       </c>
       <c r="N165" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -9117,10 +9117,10 @@
         <v>1</v>
       </c>
       <c r="G167" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H167" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I167" t="s">
         <v>399</v>
@@ -9135,7 +9135,7 @@
         <v>372</v>
       </c>
       <c r="M167" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="N167" t="s">
         <v>368</v>
@@ -9217,10 +9217,10 @@
         <v>367</v>
       </c>
       <c r="K169" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="L169" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M169" t="s">
         <v>469</v>
@@ -9246,13 +9246,13 @@
         <v>0</v>
       </c>
       <c r="F170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" t="s">
         <v>318</v>
       </c>
       <c r="H170" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I170" t="s">
         <v>230</v>
@@ -9267,7 +9267,7 @@
         <v>370</v>
       </c>
       <c r="M170" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="N170" t="s">
         <v>371</v>
@@ -9340,7 +9340,7 @@
         <v>307</v>
       </c>
       <c r="H172" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I172" t="s">
         <v>319</v>
@@ -9355,7 +9355,7 @@
         <v>370</v>
       </c>
       <c r="M172" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N172" t="s">
         <v>368</v>
@@ -9378,19 +9378,19 @@
         <v>0</v>
       </c>
       <c r="F173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="H173" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I173" t="s">
         <v>320</v>
       </c>
       <c r="J173" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K173" t="s">
         <v>430</v>
@@ -9399,10 +9399,10 @@
         <v>370</v>
       </c>
       <c r="M173" t="s">
-        <v>318</v>
+        <v>212</v>
       </c>
       <c r="N173" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9425,10 +9425,10 @@
         <v>0</v>
       </c>
       <c r="G174" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="H174" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I174" t="s">
         <v>321</v>
@@ -9443,7 +9443,7 @@
         <v>370</v>
       </c>
       <c r="M174" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="N174" t="s">
         <v>368</v>
@@ -9475,10 +9475,10 @@
         <v>367</v>
       </c>
       <c r="I175" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="J175" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K175" t="s">
         <v>432</v>
@@ -9487,7 +9487,7 @@
         <v>370</v>
       </c>
       <c r="M175" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="N175" t="s">
         <v>368</v>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177" t="s">
         <v>366</v>
@@ -9563,16 +9563,16 @@
         <v>370</v>
       </c>
       <c r="I177" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J177" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K177" t="s">
         <v>323</v>
       </c>
       <c r="L177" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M177" t="s">
         <v>285</v>
@@ -9613,16 +9613,16 @@
         <v>370</v>
       </c>
       <c r="K178" t="s">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="L178" t="s">
         <v>368</v>
       </c>
       <c r="M178" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="N178" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9689,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="G180" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="H180" t="s">
         <v>373</v>
@@ -9701,7 +9701,7 @@
         <v>372</v>
       </c>
       <c r="K180" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="L180" t="s">
         <v>371</v>
@@ -9730,25 +9730,25 @@
         <v>0</v>
       </c>
       <c r="F181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="s">
         <v>326</v>
       </c>
       <c r="H181" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I181" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="J181" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K181" t="s">
         <v>304</v>
       </c>
       <c r="L181" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="M181" t="s">
         <v>471</v>
@@ -9868,7 +9868,7 @@
         <v>294</v>
       </c>
       <c r="H184" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I184" t="s">
         <v>327</v>
@@ -9883,7 +9883,7 @@
         <v>370</v>
       </c>
       <c r="M184" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N184" t="s">
         <v>368</v>
@@ -9906,13 +9906,13 @@
         <v>0</v>
       </c>
       <c r="F185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="s">
         <v>328</v>
       </c>
       <c r="H185" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I185" t="s">
         <v>401</v>
@@ -9921,13 +9921,13 @@
         <v>370</v>
       </c>
       <c r="K185" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="L185" t="s">
         <v>369</v>
       </c>
       <c r="M185" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="N185" t="s">
         <v>368</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="F186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="H186" t="s">
         <v>368</v>
       </c>
       <c r="I186" t="s">
-        <v>316</v>
+        <v>211</v>
       </c>
       <c r="J186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K186" t="s">
         <v>434</v>
@@ -9974,7 +9974,7 @@
         <v>329</v>
       </c>
       <c r="N186" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9997,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="H187" t="s">
         <v>368</v>
@@ -10009,7 +10009,7 @@
         <v>370</v>
       </c>
       <c r="K187" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="L187" t="s">
         <v>371</v>
@@ -10094,7 +10094,7 @@
         <v>286</v>
       </c>
       <c r="J189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K189" t="s">
         <v>435</v>
@@ -10170,13 +10170,13 @@
         <v>0</v>
       </c>
       <c r="F191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="H191" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I191" t="s">
         <v>403</v>
@@ -10188,7 +10188,7 @@
         <v>332</v>
       </c>
       <c r="L191" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M191" t="s">
         <v>263</v>
@@ -10226,7 +10226,7 @@
         <v>256</v>
       </c>
       <c r="J192" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K192" t="s">
         <v>333</v>
